--- a/img/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/img/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toure\Desktop\BTS SIO\BTS-SIO-SLAM-1\Portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285C62EA-19BD-4BCC-A291-63F144D53CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079E691-C4E7-4612-92E6-8C0FF08705E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
@@ -104,16 +101,10 @@
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
     <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
-    <t>Réalisations en milieu professionnel</t>
   </si>
   <si>
     <t>SESSION 2025</t>
@@ -173,8 +164,41 @@
     <t>formation  sur Udemy  pour accuierir des compétences pratiques et théoriques dans une multitude de domaines.</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>Réalisations en milieu professionnel en 1er année</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en 2e année</t>
+  </si>
+  <si>
+    <t>NOM et prénom : Toure Falilou</t>
+  </si>
+  <si>
+    <t>Centre de formation : Efrei Paris</t>
+  </si>
+  <si>
+    <t>01/09/2023 – 01/11/2023</t>
+  </si>
+  <si>
+    <t>01/01/2024 – 01/03/2024</t>
+  </si>
+  <si>
+    <t>01/05/2024 – 01/07/2024</t>
+  </si>
+  <si>
+    <t>01/09/2024 – 01/11/2024</t>
+  </si>
+  <si>
+    <t>01/01/2025 – 01/03/2025</t>
+  </si>
+  <si>
+    <t>01/05/2025 – 01/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation de deux ablication de gestion de produits pharmaceutique.
 </t>
+  </si>
+  <si>
+    <t>01/09/2023 – 01/08/2025</t>
   </si>
 </sst>
 </file>
@@ -184,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,11 +266,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -621,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,12 +648,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,9 +672,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,7 +681,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,6 +696,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,47 +765,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,137 +1078,137 @@
   </sheetPr>
   <dimension ref="A1:AQ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.7265625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.453125" customWidth="1"/>
     <col min="44" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="22"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="41"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>25</v>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1235,16 +1248,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="A8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1282,16 +1295,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1329,16 +1344,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="12"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1376,16 +1393,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="16"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1423,16 +1442,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1470,16 +1491,18 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1517,16 +1540,18 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1564,16 +1589,16 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="A15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1611,16 +1636,18 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1658,16 +1685,18 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="12"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1705,16 +1734,18 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1752,16 +1783,18 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1799,16 +1832,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1846,16 +1881,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="12"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1892,14 +1929,17 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1937,14 +1977,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1982,14 +2026,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="A24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2027,14 +2075,18 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
+      <c r="A25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2072,14 +2124,18 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2117,14 +2173,18 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
+      <c r="A27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2162,14 +2222,18 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="12"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2415,18 +2479,19 @@
       <c r="H76" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/img/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
+++ b/img/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toure\Desktop\BTS SIO\BTS-SIO-SLAM-1\Portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2079E691-C4E7-4612-92E6-8C0FF08705E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998BFEB3-1631-4D84-9702-76C81006E964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Compétences mises en œuvre
 Réalisations professionnelles
 (intitulé et liste des documents et productions associés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>01/09/2023 – 01/08/2025</t>
+  </si>
+  <si>
+    <t>N° candidat : 02444879280</t>
   </si>
 </sst>
 </file>
@@ -696,6 +696,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,15 +753,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -737,36 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,8 +1078,8 @@
   </sheetPr>
   <dimension ref="A1:AQ76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1092,56 +1092,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="33"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="41"/>
+      <c r="A3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1149,27 +1149,27 @@
         <v>15</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>19</v>
+      <c r="B6" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
@@ -1191,8 +1191,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1248,16 +1248,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="11"/>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="11"/>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="11"/>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1589,16 +1589,16 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="15"/>
@@ -1735,17 +1735,17 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="15"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="14"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1784,15 +1784,15 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="12"/>
       <c r="I19"/>
@@ -1833,17 +1833,17 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="11"/>
@@ -1930,16 +1930,16 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="A22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="14"/>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="15"/>
@@ -2076,17 +2076,17 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="14"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2125,15 +2125,15 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
       <c r="I26"/>
@@ -2174,17 +2174,17 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="15"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="11"/>
